--- a/docs/Assessment_Form.xlsx
+++ b/docs/Assessment_Form.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nora\Documents\A57\Team work\Final\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE26C65F-7E2E-4130-AB12-E4B10EC4AAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67435A11-F5AA-4991-9DB3-EA05774C7446}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -170,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,13 +223,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{A128852F-BC22-4A4F-A8D2-112CE7C3B932}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -252,7 +247,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -262,7 +256,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -285,7 +279,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Aptos Narrow"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -295,7 +288,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -318,11 +311,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A8DB0563-F795-43B2-9FFB-86200A2522F5}" name="Table1" displayName="Table1" ref="A1:B24" totalsRowShown="0" totalsRowCellStyle="Normal 2">
-  <autoFilter ref="A1:B24" xr:uid="{A8DB0563-F795-43B2-9FFB-86200A2522F5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B24" totalsRowShown="0" totalsRowCellStyle="Normal 2">
+  <autoFilter ref="A1:B24"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{921A0654-8E6B-44BA-B6DA-2BEFB82D1B77}" name="Criteria" totalsRowDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9308F22D-218B-412B-B6C1-355F7BFE252E}" name="Self-Assessment, True/False" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Criteria" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Self-Assessment, True/False" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -371,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -637,27 +630,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21764698-CE90-45C1-A9C8-E9579CDBA9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="75.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="75.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,141 +658,183 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
